--- a/bin/com/qtpselenium/xls/Check Items.xlsx
+++ b/bin/com/qtpselenium/xls/Check Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7605" activeTab="1"/>
+    <workbookView windowWidth="18315" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -155,7 +155,7 @@
     <t>Col2</t>
   </si>
   <si>
-    <t>Results</t>
+    <t>Result</t>
   </si>
   <si>
     <t>A1</t>
@@ -185,9 +185,6 @@
     <t>Correct_data</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>itsthakur@gmail.com</t>
   </si>
   <si>
@@ -204,6 +201,15 @@
   </si>
   <si>
     <t>hello123</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Result2</t>
   </si>
 </sst>
 </file>
@@ -211,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -233,6 +239,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -242,21 +317,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,16 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,60 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,15 +362,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,181 +408,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,30 +607,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +674,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -702,10 +699,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,131 +732,131 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
@@ -858,6 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,15 +1187,15 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="32.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="22.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7142857142857" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1243,21 +1251,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="37.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="19.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.8571428571429" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="5.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.8571428571429" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.2857142857143" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.7142857142857" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1282,6 +1292,12 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H1" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s" s="8">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1299,6 +1315,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1316,6 +1338,12 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
@@ -1333,6 +1361,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
@@ -1350,6 +1384,12 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -1367,6 +1407,12 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1384,6 +1430,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -1401,6 +1453,12 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -1418,6 +1476,12 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
@@ -1435,6 +1499,12 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
@@ -1452,6 +1522,12 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
@@ -1469,6 +1545,12 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
@@ -1486,6 +1568,12 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
@@ -1503,6 +1591,12 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
@@ -1520,6 +1614,12 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
@@ -1537,6 +1637,12 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
@@ -1554,6 +1660,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1567,15 +1679,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="15.1428571428571" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4285714285714" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1600,9 +1712,11 @@
         <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -1614,7 +1728,9 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
@@ -1624,7 +1740,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1640,15 +1756,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="24.8571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.8571428571429" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.5859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1665,15 +1782,15 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1681,14 +1798,16 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1696,14 +1815,16 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>

--- a/bin/com/qtpselenium/xls/Check Items.xlsx
+++ b/bin/com/qtpselenium/xls/Check Items.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Result2</t>
+  </si>
+  <si>
+    <t>Result3</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
@@ -864,6 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -1251,7 +1258,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -1268,6 +1275,7 @@
     <col min="7" max="7" customWidth="true" width="19.7142857142857" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.69921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1298,6 +1306,9 @@
       <c r="I1" t="s" s="8">
         <v>63</v>
       </c>
+      <c r="J1" t="s" s="9">
+        <v>64</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1321,6 +1332,9 @@
       <c r="I2" t="s">
         <v>62</v>
       </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1344,6 +1358,9 @@
       <c r="I3" t="s">
         <v>62</v>
       </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
@@ -1367,6 +1384,9 @@
       <c r="I4" t="s">
         <v>62</v>
       </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
@@ -1390,6 +1410,9 @@
       <c r="I5" t="s">
         <v>62</v>
       </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -1413,6 +1436,9 @@
       <c r="I6" t="s">
         <v>62</v>
       </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1436,6 +1462,9 @@
       <c r="I7" t="s">
         <v>62</v>
       </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -1459,6 +1488,9 @@
       <c r="I8" t="s">
         <v>62</v>
       </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -1482,6 +1514,9 @@
       <c r="I9" t="s">
         <v>62</v>
       </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
@@ -1505,6 +1540,9 @@
       <c r="I10" t="s">
         <v>62</v>
       </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
@@ -1528,6 +1566,9 @@
       <c r="I11" t="s">
         <v>62</v>
       </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
@@ -1551,6 +1592,9 @@
       <c r="I12" t="s">
         <v>62</v>
       </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
@@ -1574,6 +1618,9 @@
       <c r="I13" t="s">
         <v>62</v>
       </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
@@ -1597,6 +1644,9 @@
       <c r="I14" t="s">
         <v>62</v>
       </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
@@ -1620,6 +1670,9 @@
       <c r="I15" t="s">
         <v>62</v>
       </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
@@ -1643,6 +1696,9 @@
       <c r="I16" t="s">
         <v>62</v>
       </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
@@ -1665,6 +1721,9 @@
       </c>
       <c r="I17" t="s">
         <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1801,9 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1832,7 +1893,9 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
